--- a/Holdings_Automation/final.xlsx
+++ b/Holdings_Automation/final.xlsx
@@ -2084,25 +2084,25 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>320275.8944</v>
+        <v>395097.9996</v>
       </c>
       <c r="F2" t="n">
-        <v>318522.1784973145</v>
+        <v>438154.9307632446</v>
       </c>
       <c r="G2" t="n">
-        <v>696.4260711669922</v>
+        <v>1883.923538208008</v>
       </c>
       <c r="H2" t="n">
-        <v>-1753.71590268556</v>
+        <v>43056.93116324463</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2186428820914472</v>
+        <v>0.4299674398109145</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.5475641262265286</v>
+        <v>10.89778515883041</v>
       </c>
       <c r="K2" t="n">
-        <v>7.436362444118491</v>
+        <v>7.652323177726714</v>
       </c>
     </row>
     <row r="3">
@@ -2125,25 +2125,25 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>95646.67180000001</v>
+        <v>105509.9468</v>
       </c>
       <c r="F3" t="n">
-        <v>74509.69905090332</v>
+        <v>81890.3000793457</v>
       </c>
       <c r="G3" t="n">
-        <v>534.2496643066406</v>
+        <v>-444.8497314453125</v>
       </c>
       <c r="H3" t="n">
-        <v>-21136.97274909668</v>
+        <v>-23619.64672065429</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7170202954942194</v>
+        <v>-0.5432264029003261</v>
       </c>
       <c r="J3" t="n">
-        <v>-22.09901541926593</v>
+        <v>-22.38618010624785</v>
       </c>
       <c r="K3" t="n">
-        <v>1.739537040587521</v>
+        <v>1.430204243591592</v>
       </c>
     </row>
     <row r="4">
@@ -2166,25 +2166,25 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>136992.9856441</v>
+        <v>566971.8731759</v>
       </c>
       <c r="F4" t="n">
-        <v>134008.3254670982</v>
+        <v>582352.8876404533</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.945740371704</v>
+        <v>1057.9281497612</v>
       </c>
       <c r="H4" t="n">
-        <v>-2984.660177001769</v>
+        <v>15381.01446455332</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8663235931984985</v>
+        <v>0.1816644464574834</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.178695619318602</v>
+        <v>2.71283553774835</v>
       </c>
       <c r="K4" t="n">
-        <v>3.128618808913298</v>
+        <v>10.17072315480821</v>
       </c>
     </row>
     <row r="5">
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1761558.29</v>
+        <v>2615832.89</v>
       </c>
       <c r="F5" t="n">
-        <v>1761558.29</v>
+        <v>2615832.89</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>41.12613436427328</v>
+        <v>45.6852068704051</v>
       </c>
     </row>
     <row r="6">
@@ -2248,25 +2248,25 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>292985.1594637</v>
+        <v>592969.8805606</v>
       </c>
       <c r="F6" t="n">
-        <v>294427.4481737652</v>
+        <v>618512.6492523041</v>
       </c>
       <c r="G6" t="n">
-        <v>-277.8167929763794</v>
+        <v>317.2587076454163</v>
       </c>
       <c r="H6" t="n">
-        <v>1442.288710065186</v>
+        <v>25542.76869170408</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09435831974891738</v>
+        <v>0.05129381072948758</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4922736403117651</v>
+        <v>4.307599682391235</v>
       </c>
       <c r="K6" t="n">
-        <v>6.87383600239784</v>
+        <v>10.80224904315421</v>
       </c>
     </row>
     <row r="7">
@@ -2292,22 +2292,22 @@
         <v>5332.6278</v>
       </c>
       <c r="F7" t="n">
-        <v>5620.529960632324</v>
+        <v>6616.410118103027</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.580059051513672</v>
+        <v>-45.14980316162109</v>
       </c>
       <c r="H7" t="n">
-        <v>287.902160632324</v>
+        <v>1283.782318103027</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0459041953265099</v>
+        <v>-0.6823912417110847</v>
       </c>
       <c r="J7" t="n">
-        <v>5.398879716156526</v>
+        <v>24.07410316735451</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1312194275214069</v>
+        <v>0.1155548070905165</v>
       </c>
     </row>
     <row r="8">
@@ -2330,25 +2330,25 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>37167.293</v>
+        <v>57087.19979999999</v>
       </c>
       <c r="F8" t="n">
-        <v>34357.44899749756</v>
+        <v>59943.86929321289</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-46.32106018066406</v>
       </c>
       <c r="H8" t="n">
-        <v>-2809.844002502439</v>
+        <v>2856.669493212896</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0.07727405775907885</v>
       </c>
       <c r="J8" t="n">
-        <v>-7.559990991279456</v>
+        <v>5.004045571022903</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8021245007366465</v>
+        <v>1.046912468966225</v>
       </c>
     </row>
     <row r="9">
@@ -2371,25 +2371,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34998.22475489999</v>
+        <v>54997.2910711</v>
       </c>
       <c r="F9" t="n">
-        <v>30964.39804679489</v>
+        <v>49656.49855968093</v>
       </c>
       <c r="G9" t="n">
-        <v>-276.7160626068115</v>
+        <v>52.15571828842163</v>
       </c>
       <c r="H9" t="n">
-        <v>-4033.826708105105</v>
+        <v>-5340.792511419066</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.8936587825431804</v>
+        <v>0.1050330164253062</v>
       </c>
       <c r="J9" t="n">
-        <v>-11.5258037696336</v>
+        <v>-9.71101013778031</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7229088028539365</v>
+        <v>0.8672447761596103</v>
       </c>
     </row>
     <row r="10">
@@ -2410,25 +2410,25 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1758177.9092896</v>
+        <v>1267354.3551104</v>
       </c>
       <c r="F10" t="n">
-        <v>1629337.947347656</v>
+        <v>1272816.176010254</v>
       </c>
       <c r="G10" t="n">
-        <v>-104.1034814453125</v>
+        <v>11.1471650390625</v>
       </c>
       <c r="H10" t="n">
-        <v>19369.85805805633</v>
+        <v>5461.820899853905</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.006389311782419296</v>
+        <v>0.0008757875056242762</v>
       </c>
       <c r="J10" t="n">
-        <v>1.101700684311454</v>
+        <v>0.4309624121959262</v>
       </c>
       <c r="K10" t="n">
-        <v>38.03925860859758</v>
+        <v>22.2295814580978</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1991.0682</v>
+        <v>1564.4107</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2545,47 +2545,47 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1700.699951171875</v>
+        <v>1402.25</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.550537109375</v>
+        <v>-228.899658203125</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.00294275044098192</v>
+        <v>-1.152543061280141</v>
       </c>
       <c r="J2" t="n">
-        <v>21901.7502</v>
+        <v>21901.7498</v>
       </c>
       <c r="K2" t="n">
-        <v>18707.69946289062</v>
+        <v>19631.5</v>
       </c>
       <c r="L2" t="n">
-        <v>-3194.050737109374</v>
+        <v>-2270.249799999998</v>
       </c>
       <c r="M2" t="n">
-        <v>-14.58354107750427</v>
+        <v>-10.36560923547761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BANKBEES</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>328.8214</v>
+        <v>5860</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BANKBEES.NS</t>
+          <t>BAJFINANCE.NS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2594,47 +2594,47 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>354.6499938964844</v>
+        <v>5937.89990234375</v>
       </c>
       <c r="H3" t="n">
-        <v>11.83001708984375</v>
+        <v>50.3994140625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4788085002040068</v>
+        <v>0.4261962588806371</v>
       </c>
       <c r="J3" t="n">
-        <v>2301.7498</v>
+        <v>11720</v>
       </c>
       <c r="K3" t="n">
-        <v>2482.549957275391</v>
+        <v>11875.7998046875</v>
       </c>
       <c r="L3" t="n">
-        <v>180.8001572753906</v>
+        <v>155.7998046875</v>
       </c>
       <c r="M3" t="n">
-        <v>7.854900531560406</v>
+        <v>1.32934986934727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>BANKBEES</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>1460</v>
+        <v>354.8747</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLPAL.NS</t>
+          <t>BANKBEES.NS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>index</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2643,47 +2643,47 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1566.699951171875</v>
+        <v>425.6400146484375</v>
       </c>
       <c r="H4" t="n">
-        <v>-42.900634765625</v>
+        <v>-212.9974365234375</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.2101941928742038</v>
+        <v>-0.3325019712157481</v>
       </c>
       <c r="J4" t="n">
-        <v>18980</v>
+        <v>53231.205</v>
       </c>
       <c r="K4" t="n">
-        <v>20367.09936523438</v>
+        <v>63846.00219726562</v>
       </c>
       <c r="L4" t="n">
-        <v>1387.099365234375</v>
+        <v>10614.79719726562</v>
       </c>
       <c r="M4" t="n">
-        <v>7.308215833690069</v>
+        <v>19.94092975589341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CONSUMBEES</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>66.1356</v>
+        <v>1460</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CONSUMBEES.NS</t>
+          <t>COLPAL.NS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2692,43 +2692,47 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>77.76999664306641</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>1539.949951171875</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42.8990478515625</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2147481017397432</v>
+      </c>
       <c r="J5" t="n">
-        <v>1058.1696</v>
+        <v>18980</v>
       </c>
       <c r="K5" t="n">
-        <v>1244.319946289062</v>
+        <v>20019.34936523438</v>
       </c>
       <c r="L5" t="n">
-        <v>186.1503462890626</v>
+        <v>1039.349365234375</v>
       </c>
       <c r="M5" t="n">
-        <v>17.5917306912864</v>
+        <v>5.476024052868151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GOLDBEES-E</t>
+          <t>CONSUMBEES</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>41.3382</v>
+        <v>66.1356</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GOLDBEES.NS</t>
+          <t>CONSUMBEES.NS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>index</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2737,47 +2741,47 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43.56999969482422</v>
+        <v>80.23000335693359</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.580059051513672</v>
+        <v>1.9200439453125</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04588313304349569</v>
+        <v>0.1497974605763826</v>
       </c>
       <c r="J6" t="n">
-        <v>5332.6278</v>
+        <v>1058.1696</v>
       </c>
       <c r="K6" t="n">
-        <v>5620.529960632324</v>
+        <v>1283.680053710938</v>
       </c>
       <c r="L6" t="n">
-        <v>287.902160632324</v>
+        <v>225.5104537109376</v>
       </c>
       <c r="M6" t="n">
-        <v>5.398879716156526</v>
+        <v>21.31137142013318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>GOLDBEES-E</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
-        <v>1170.3667</v>
+        <v>41.3382</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HCLTECH.NS</t>
+          <t>GOLDBEES.NS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2786,42 +2790,42 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>983.5499877929688</v>
+        <v>51.29000091552734</v>
       </c>
       <c r="H7" t="n">
-        <v>-56.69989013671875</v>
+        <v>-45.14980316162109</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6364588521851</v>
+        <v>-0.677766224356798</v>
       </c>
       <c r="J7" t="n">
-        <v>10533.3003</v>
+        <v>5332.6278</v>
       </c>
       <c r="K7" t="n">
-        <v>8851.949890136719</v>
+        <v>6616.410118103027</v>
       </c>
       <c r="L7" t="n">
-        <v>-1681.350409863282</v>
+        <v>1283.782318103027</v>
       </c>
       <c r="M7" t="n">
-        <v>-15.96223749420001</v>
+        <v>24.07410316735451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.3179</v>
+        <v>1170.3667</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HDFCBANK.NS</t>
+          <t>HCLTECH.NS</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2835,42 +2839,42 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1397.099975585938</v>
+        <v>1048.949951171875</v>
       </c>
       <c r="H8" t="n">
-        <v>109.19384765625</v>
+        <v>103.049560546875</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09313130192994924</v>
+        <v>1.103609751506024</v>
       </c>
       <c r="J8" t="n">
-        <v>117542.7036</v>
+        <v>10533.3003</v>
       </c>
       <c r="K8" t="n">
-        <v>117356.3979492188</v>
+        <v>9440.549560546875</v>
       </c>
       <c r="L8" t="n">
-        <v>-186.305650781258</v>
+        <v>-1092.750739453126</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1585003960903091</v>
+        <v>-10.37424841531505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2316.55</v>
+        <v>1942.95</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HINDUNILVR.NS</t>
+          <t>HDFCAMC.NS</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2880,51 +2884,51 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>med</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2496.85009765625</v>
+        <v>1769.949951171875</v>
       </c>
       <c r="H9" t="n">
-        <v>215.101318359375</v>
+        <v>-21.25</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9664630079977664</v>
+        <v>-0.2395445900667981</v>
       </c>
       <c r="J9" t="n">
-        <v>20848.95</v>
+        <v>9714.75</v>
       </c>
       <c r="K9" t="n">
-        <v>22471.65087890625</v>
+        <v>8849.749755859375</v>
       </c>
       <c r="L9" t="n">
-        <v>1622.700878906249</v>
+        <v>-865.000244140625</v>
       </c>
       <c r="M9" t="n">
-        <v>7.783129984513605</v>
+        <v>-8.903988719633805</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INFRABEES</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>433.968</v>
+        <v>1399.3179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INFRABEES.NS</t>
+          <t>HDFCBANK.NS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2933,42 +2937,42 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>485.4299926757812</v>
+        <v>1674.599975585938</v>
       </c>
       <c r="H10" t="n">
-        <v>25.5999755859375</v>
+        <v>226.7958984375</v>
       </c>
       <c r="I10" t="n">
-        <v>1.065977211220323</v>
+        <v>0.1614899893802699</v>
       </c>
       <c r="J10" t="n">
-        <v>2169.84</v>
+        <v>117542.7036</v>
       </c>
       <c r="K10" t="n">
-        <v>2427.149963378906</v>
+        <v>140666.3979492188</v>
       </c>
       <c r="L10" t="n">
-        <v>257.3099633789061</v>
+        <v>23123.69434921874</v>
       </c>
       <c r="M10" t="n">
-        <v>11.85847635673165</v>
+        <v>19.67259016596138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>532</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3148</v>
+        <v>2316.55</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IRFC.NS</t>
+          <t>HINDUNILVR.NS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2978,95 +2982,95 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>med</t>
+          <t>low</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>19.95000076293945</v>
+        <v>2497.949951171875</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>48.148681640625</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.2146294353697321</v>
       </c>
       <c r="J11" t="n">
-        <v>12935.4736</v>
+        <v>20848.95</v>
       </c>
       <c r="K11" t="n">
-        <v>10613.40040588379</v>
+        <v>22481.54956054688</v>
       </c>
       <c r="L11" t="n">
-        <v>-2322.073194116212</v>
+        <v>1632.599560546874</v>
       </c>
       <c r="M11" t="n">
-        <v>-17.95120353472185</v>
+        <v>7.83060806681811</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>INFRABEES</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>2710.05</v>
+        <v>433.968</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LALPATHLAB.NS</t>
+          <t>INFRABEES.NS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>index</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>med</t>
+          <t>low</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2178.050048828125</v>
+        <v>536.5900268554688</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.69970703125</v>
+        <v>-5</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.08485956229623681</v>
+        <v>-0.1860153555766856</v>
       </c>
       <c r="J12" t="n">
-        <v>5420.1</v>
+        <v>2169.84</v>
       </c>
       <c r="K12" t="n">
-        <v>4356.10009765625</v>
+        <v>2682.950134277344</v>
       </c>
       <c r="L12" t="n">
-        <v>-1063.99990234375</v>
+        <v>513.1101342773436</v>
       </c>
       <c r="M12" t="n">
-        <v>-19.63063231939909</v>
+        <v>23.64737189273604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LTTS</t>
+          <t>ISEC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>5014.02</v>
+        <v>436.1333</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LTTS.NS</t>
+          <t>ISEC.NS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3080,42 +3084,42 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3121.89990234375</v>
+        <v>430.1499938964844</v>
       </c>
       <c r="H13" t="n">
-        <v>315.999755859375</v>
+        <v>-294.0005493164062</v>
       </c>
       <c r="I13" t="n">
-        <v>2.066235726968292</v>
+        <v>-2.227529955365745</v>
       </c>
       <c r="J13" t="n">
-        <v>25070.1</v>
+        <v>13083.999</v>
       </c>
       <c r="K13" t="n">
-        <v>15609.49951171875</v>
+        <v>12904.49981689453</v>
       </c>
       <c r="L13" t="n">
-        <v>-9460.600488281252</v>
+        <v>-179.4991831054685</v>
       </c>
       <c r="M13" t="n">
-        <v>-37.73658855880611</v>
+        <v>-1.371898477716702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LUXIND</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>2254.4</v>
+        <v>1738.95</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LUXIND.NS</t>
+          <t>KOTAKBANK.NS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3125,46 +3129,46 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>med</t>
+          <t>low</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1881.550048828125</v>
+        <v>1893.650024414062</v>
       </c>
       <c r="H14" t="n">
-        <v>-115.74951171875</v>
+        <v>67.5501708984375</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.215409405009273</v>
+        <v>0.512209363803742</v>
       </c>
       <c r="J14" t="n">
-        <v>11272</v>
+        <v>12172.65</v>
       </c>
       <c r="K14" t="n">
-        <v>9407.750244140625</v>
+        <v>13255.55017089844</v>
       </c>
       <c r="L14" t="n">
-        <v>-1864.249755859375</v>
+        <v>1082.900170898438</v>
       </c>
       <c r="M14" t="n">
-        <v>-16.53876646433086</v>
+        <v>8.896174381900719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>504.2</v>
+        <v>2710.05</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MARICO.NS</t>
+          <t>LALPATHLAB.NS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3174,91 +3178,95 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>med</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>503.75</v>
+        <v>1909.150024414062</v>
       </c>
       <c r="H15" t="n">
-        <v>190</v>
+        <v>12.300048828125</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9519038076152304</v>
+        <v>0.3231752188156858</v>
       </c>
       <c r="J15" t="n">
-        <v>20168</v>
+        <v>5420.1</v>
       </c>
       <c r="K15" t="n">
-        <v>20150</v>
+        <v>3818.300048828125</v>
       </c>
       <c r="L15" t="n">
-        <v>-18</v>
+        <v>-1601.799951171875</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.08925029750099167</v>
+        <v>-29.55295937661436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MON100-E</t>
+          <t>LTTS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>101.8282</v>
+        <v>5014.02</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MON100.NS</t>
+          <t>LTTS.NS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>n100</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>med</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>94.12999725341797</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+        <v>3386.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>135.74951171875</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8081289901941163</v>
+      </c>
       <c r="J16" t="n">
-        <v>37167.293</v>
+        <v>25070.1</v>
       </c>
       <c r="K16" t="n">
-        <v>34357.44899749756</v>
+        <v>16933.75</v>
       </c>
       <c r="L16" t="n">
-        <v>-2809.844002502439</v>
+        <v>-8136.350000000002</v>
       </c>
       <c r="M16" t="n">
-        <v>-7.559990991279456</v>
+        <v>-32.45439786837708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NAM-INDIA</t>
+          <t>LUXIND</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>346.3136</v>
+        <v>2254.4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NAM-INDIA.NS</t>
+          <t>LUXIND.NS</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3272,47 +3280,47 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>287.5499877929688</v>
+        <v>1342.400024414062</v>
       </c>
       <c r="H17" t="n">
-        <v>338.2496643066406</v>
+        <v>-128.499755859375</v>
       </c>
       <c r="I17" t="n">
-        <v>2.185498944519063</v>
+        <v>-1.878514116694438</v>
       </c>
       <c r="J17" t="n">
-        <v>19047.248</v>
+        <v>11272</v>
       </c>
       <c r="K17" t="n">
-        <v>15815.24932861328</v>
+        <v>6712.000122070312</v>
       </c>
       <c r="L17" t="n">
-        <v>-3231.998671386718</v>
+        <v>-4559.999877929688</v>
       </c>
       <c r="M17" t="n">
-        <v>-16.96832356772337</v>
+        <v>-40.45422177013563</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NIFTYBEES</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>327</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>175.8854</v>
+        <v>504.2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NIFTYBEES.NS</t>
+          <t>MARICO.NS</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3321,47 +3329,47 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>176.2799987792969</v>
+        <v>473.25</v>
       </c>
       <c r="H18" t="n">
-        <v>241.9817962646484</v>
+        <v>60</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4215594858533704</v>
+        <v>0.3179650238473768</v>
       </c>
       <c r="J18" t="n">
-        <v>57514.5258</v>
+        <v>20168</v>
       </c>
       <c r="K18" t="n">
-        <v>57643.55960083008</v>
+        <v>18930</v>
       </c>
       <c r="L18" t="n">
-        <v>129.0338008300751</v>
+        <v>-1238</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2243499342736041</v>
+        <v>-6.13843712812376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NPBET</t>
+          <t>MON100-E</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>579</v>
       </c>
       <c r="C19" t="n">
-        <v>185.1514</v>
+        <v>98.5962</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NPBET.NS</t>
+          <t>MON100.NS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>n100</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3370,92 +3378,96 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>178.4400024414062</v>
+        <v>103.5299987792969</v>
       </c>
       <c r="H19" t="n">
-        <v>3.91998291015625</v>
+        <v>-46.32106018066406</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1571614130789471</v>
+        <v>-0.07721439106592824</v>
       </c>
       <c r="J19" t="n">
-        <v>2592.1196</v>
+        <v>57087.19979999999</v>
       </c>
       <c r="K19" t="n">
-        <v>2498.160034179688</v>
+        <v>59943.86929321289</v>
       </c>
       <c r="L19" t="n">
-        <v>-93.95956582031249</v>
+        <v>2856.669493212896</v>
       </c>
       <c r="M19" t="n">
-        <v>-3.6248159930704</v>
+        <v>5.004045571022903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NV20BEES</t>
+          <t>NAM-INDIA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>307</v>
+        <v>55</v>
       </c>
       <c r="C20" t="n">
-        <v>92.0651</v>
+        <v>346.3136</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NV20BEES.NS</t>
+          <t>NAM-INDIA.NS</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>stock</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>med</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>93.47000122070312</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+        <v>237.1000061035156</v>
+      </c>
+      <c r="H20" t="n">
+        <v>79.75067138671875</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6153245256047861</v>
+      </c>
       <c r="J20" t="n">
-        <v>28263.9857</v>
+        <v>19047.248</v>
       </c>
       <c r="K20" t="n">
-        <v>28695.29037475586</v>
+        <v>13040.50033569336</v>
       </c>
       <c r="L20" t="n">
-        <v>431.3046747558583</v>
+        <v>-6006.74766430664</v>
       </c>
       <c r="M20" t="n">
-        <v>1.525986742753901</v>
+        <v>-31.53603955966048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>NIFTYBEES</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="C21" t="n">
-        <v>2456.9</v>
+        <v>175.8854</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PIDILITIND.NS</t>
+          <t>NIFTYBEES.NS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>index</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3464,74 +3476,221 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2250.85009765625</v>
+        <v>192.8500061035156</v>
       </c>
       <c r="H21" t="n">
-        <v>110.400390625</v>
+        <v>-45.77980041503906</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6168860117972833</v>
+        <v>-0.07254230046301359</v>
       </c>
       <c r="J21" t="n">
-        <v>19655.2</v>
+        <v>57514.5258</v>
       </c>
       <c r="K21" t="n">
-        <v>18006.80078125</v>
+        <v>63061.95199584961</v>
       </c>
       <c r="L21" t="n">
-        <v>-1648.399218750001</v>
+        <v>5547.426195849606</v>
       </c>
       <c r="M21" t="n">
-        <v>-8.386580745807727</v>
+        <v>9.645261120886449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>NPBET</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>185.1514</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NPBET.NS</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>217.0299987792969</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-5.879974365234375</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.1931470107333601</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2592.1196</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3038.419982910156</v>
+      </c>
+      <c r="L22" t="n">
+        <v>446.3003829101563</v>
+      </c>
+      <c r="M22" t="n">
+        <v>17.21758451693958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NV20BEES</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>307</v>
+      </c>
+      <c r="C23" t="n">
+        <v>92.0651</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NV20BEES.NS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>105.0400009155273</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1016.169250488281</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.253708295850706</v>
+      </c>
+      <c r="J23" t="n">
+        <v>28263.9857</v>
+      </c>
+      <c r="K23" t="n">
+        <v>32247.28028106689</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3983.294581066893</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14.09318071183037</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PIDILITIND</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2456.9</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PIDILITIND.NS</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>stock</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2440.14990234375</v>
+      </c>
+      <c r="H24" t="n">
+        <v>256.3984375</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.330916630861539</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19655.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19521.19921875</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-134.0007812500007</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.681757403893121</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>TCS</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>3729.47</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>TCS.NS</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>stock</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>3265.449951171875</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-112.000732421875</v>
-      </c>
-      <c r="I22" t="n">
-        <v>-0.6813007229357259</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="G25" t="n">
+        <v>3160.85009765625</v>
+      </c>
+      <c r="H25" t="n">
+        <v>280.250244140625</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.805270804774707</v>
+      </c>
+      <c r="J25" t="n">
         <v>18647.35</v>
       </c>
-      <c r="K22" t="n">
-        <v>16327.24975585938</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-2320.100244140624</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-12.4419836820815</v>
+      <c r="K25" t="n">
+        <v>15804.25048828125</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-2843.099511718749</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-15.24666781992481</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3627,10 +3786,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.967</v>
+        <v>3775.242</v>
       </c>
       <c r="C2" t="n">
-        <v>65.7218</v>
+        <v>68.8663</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3648,47 +3807,47 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>63.52000045776367</v>
+        <v>71.13999938964844</v>
       </c>
       <c r="H2" t="n">
-        <v>395.5883090438843</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6337159896193335</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64996.6913806</v>
+        <v>259986.9481446</v>
       </c>
       <c r="K2" t="n">
-        <v>62819.18429271317</v>
+        <v>268570.7135757752</v>
       </c>
       <c r="L2" t="n">
-        <v>-2177.507087886836</v>
+        <v>8583.765431175154</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.350181434830344</v>
+        <v>3.301613981945363</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BARODA BNP PARIBAS CREDIT RISK FUND - DIRECT PLAN</t>
+          <t>BANDHAN EMERGING BUSINESSES FUND - DIRECT PLAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7710.327</v>
+        <v>11553.586</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9995</v>
+        <v>21.7238</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0P00015A84.BO</t>
+          <t>0P0001J6FU.BO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>debt</t>
+          <t>index</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3697,270 +3856,319 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>19.0403003692627</v>
+        <v>22.14900016784668</v>
       </c>
       <c r="H3" t="n">
-        <v>-208.1821232070923</v>
+        <v>1178.457486194611</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1416059228007643</v>
+        <v>0.4626447078625809</v>
       </c>
       <c r="J3" t="n">
-        <v>146492.3578365</v>
+        <v>250987.7915468</v>
       </c>
       <c r="K3" t="n">
-        <v>146806.9420252361</v>
+        <v>255900.378253231</v>
       </c>
       <c r="L3" t="n">
-        <v>314.5841887361312</v>
+        <v>4912.58670643103</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2147444367625227</v>
+        <v>1.957301060802797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EDELWEISS GREATER CHINA EQUITY OFFSHORE FUND - DIRECT PLAN</t>
+          <t>BARODA BNP PARIBAS CREDIT RISK FUND - DIRECT PLAN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>733.997</v>
+        <v>10299.302</v>
       </c>
       <c r="C4" t="n">
-        <v>47.6817</v>
+        <v>19.078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0P0000XV5G.BO</t>
+          <t>0P00015A84.BO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>china</t>
+          <t>debt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>med</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42.18600082397461</v>
+        <v>20.2362003326416</v>
       </c>
       <c r="H4" t="n">
-        <v>-276.7160626068115</v>
+        <v>97.8485551109314</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.885743260108437</v>
+        <v>0.04697011188335344</v>
       </c>
       <c r="J4" t="n">
-        <v>34998.22475489999</v>
+        <v>196490.083556</v>
       </c>
       <c r="K4" t="n">
-        <v>30964.39804679489</v>
+        <v>208418.7385583763</v>
       </c>
       <c r="L4" t="n">
-        <v>-4033.826708105105</v>
+        <v>11928.6550023763</v>
       </c>
       <c r="M4" t="n">
-        <v>-11.5258037696336</v>
+        <v>6.070868710774715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICI PRUDENTIAL CREDIT RISK FUND - DIRECT PLAN</t>
+          <t>EDELWEISS GREATER CHINA EQUITY OFFSHORE FUND - DIRECT PLAN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5398.288</v>
+        <v>1185.289</v>
       </c>
       <c r="C5" t="n">
-        <v>27.1369</v>
+        <v>46.3999</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0P0000XUYV.BO</t>
+          <t>0P0000XV5G.BO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>debt</t>
+          <t>china</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>med</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>27.34580039978027</v>
+        <v>41.89400100708008</v>
       </c>
       <c r="H5" t="n">
-        <v>-69.6346697692871</v>
+        <v>52.15571828842163</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04714916607396152</v>
+        <v>0.1051434517642679</v>
       </c>
       <c r="J5" t="n">
-        <v>146492.8016272</v>
+        <v>54997.2910711</v>
       </c>
       <c r="K5" t="n">
-        <v>147620.506148529</v>
+        <v>49656.49855968093</v>
       </c>
       <c r="L5" t="n">
-        <v>1127.704521329055</v>
+        <v>-5340.792511419066</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7698020031037954</v>
+        <v>-9.71101013778031</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICICI PRUDENTIAL SAVINGS FUND - DIRECT PLAN</t>
+          <t>ICICI PRUDENTIAL CREDIT RISK FUND - DIRECT PLAN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3377.488</v>
+        <v>14156.302</v>
       </c>
       <c r="C6" t="n">
-        <v>432.1842</v>
+        <v>28.0073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0P0000XWAO.BO</t>
+          <t>0P0000XUYV.BO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>debt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>high</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>437.919189453125</v>
+        <v>28.9689998626709</v>
       </c>
       <c r="H6" t="n">
-        <v>-104.1034814453125</v>
+        <v>219.4101525344849</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.007037961650216651</v>
+        <v>0.05353105700517385</v>
       </c>
       <c r="J6" t="n">
-        <v>1459696.9492896</v>
+        <v>396479.7970046</v>
       </c>
       <c r="K6" t="n">
-        <v>1479066.807347656</v>
+        <v>410093.9106939278</v>
       </c>
       <c r="L6" t="n">
-        <v>19369.85805805633</v>
+        <v>13614.11368932779</v>
       </c>
       <c r="M6" t="n">
-        <v>1.326978046195355</v>
+        <v>3.433747139748923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IDFC EMERGING BUSINESSES FUND - DIRECT PLAN</t>
+          <t>ICICI PRUDENTIAL SAVINGS FUND - DIRECT PLAN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3193.258</v>
+        <v>177.488</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6675</v>
+        <v>434.1158</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0P0001J6FU.BO</t>
+          <t>0P0000XWAO.BO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>low</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>20.52000045776367</v>
+        <v>464.8887023925781</v>
       </c>
       <c r="H7" t="n">
-        <v>702.5206580200195</v>
+        <v>11.1471650390625</v>
       </c>
       <c r="I7" t="n">
-        <v>1.083749896411234</v>
+        <v>0.01351154833611979</v>
       </c>
       <c r="J7" t="n">
-        <v>65996.659715</v>
+        <v>77050.3451104</v>
       </c>
       <c r="K7" t="n">
-        <v>65525.65562175751</v>
+        <v>82512.1660102539</v>
       </c>
       <c r="L7" t="n">
-        <v>-471.0040932424963</v>
+        <v>5461.820899853905</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.7136786850675179</v>
+        <v>7.088639112554326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>KOTAK EMERGING EQUITY FUND - DIRECT PLAN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>599.002</v>
+      </c>
+      <c r="C8" t="n">
+        <v>83.468</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0P0000XV5R.BO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>85.48400115966797</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-112.6099264678955</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.2194368254194422</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49997.498936</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51205.08766264343</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1207.588726643429</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.415298269597886</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>NIPPON INDIA SMALL CAP FUND - DIRECT PLAN</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>64.541</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>92.9585</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0P0000XVFY.BO</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>87.75019836425781</v>
-      </c>
-      <c r="H8" t="n">
-        <v>62.83677330780029</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.121955255252272</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="G9" t="n">
+        <v>103.4490966796875</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-7.919409965515136</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.1184719701417929</v>
+      </c>
+      <c r="J9" t="n">
         <v>5999.6345485</v>
       </c>
-      <c r="K8" t="n">
-        <v>5663.485552627563</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-336.1489958724369</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-5.602824524645077</v>
+      <c r="K9" t="n">
+        <v>6676.70814880371</v>
+      </c>
+      <c r="L9" t="n">
+        <v>677.07360030371</v>
+      </c>
+      <c r="M9" t="n">
+        <v>11.28524737349192</v>
       </c>
     </row>
   </sheetData>
@@ -4026,10 +4234,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9314.52</v>
+        <v>5389.52</v>
       </c>
       <c r="E2" t="n">
-        <v>9314.52</v>
+        <v>5389.52</v>
       </c>
     </row>
     <row r="3">
@@ -4049,10 +4257,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>281327.35</v>
+        <v>1178060.61</v>
       </c>
       <c r="E3" t="n">
-        <v>133117.53</v>
+        <v>1178060.61</v>
       </c>
     </row>
     <row r="4">
@@ -4072,10 +4280,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7024.9</v>
+        <v>5398.9</v>
       </c>
       <c r="E4" t="n">
-        <v>7024.9</v>
+        <v>5398.9</v>
       </c>
     </row>
     <row r="5">
@@ -4118,10 +4326,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>814.1900000000001</v>
+        <v>1454.98</v>
       </c>
       <c r="E6" t="n">
-        <v>814.1900000000001</v>
+        <v>1454.98</v>
       </c>
     </row>
     <row r="7">
@@ -4141,10 +4349,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>432360.29</v>
+        <v>335634.89</v>
       </c>
       <c r="E7" t="n">
-        <v>432360.29</v>
+        <v>335634.89</v>
       </c>
     </row>
     <row r="8">
@@ -4187,10 +4395,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>853616</v>
+        <v>1003616</v>
       </c>
       <c r="E9" t="n">
-        <v>853616</v>
+        <v>1003616</v>
       </c>
     </row>
     <row r="10">
@@ -4233,10 +4441,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>199000</v>
+        <v>1000000</v>
       </c>
       <c r="E11" t="n">
-        <v>199000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="12">
@@ -4333,554 +4541,554 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1402.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19631.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16706.62228698731</v>
+      </c>
+      <c r="G2" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
-        <v>1700.699951171875</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18707.69946289062</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13110.22238464356</v>
-      </c>
-      <c r="G2" t="n">
-        <v>7</v>
-      </c>
       <c r="H2" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>COLPAL</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1566.699951171875</v>
+        <v>5937.89990234375</v>
       </c>
       <c r="E3" t="n">
-        <v>20367.09936523438</v>
+        <v>11875.7998046875</v>
       </c>
       <c r="F3" t="n">
-        <v>7866.133430786133</v>
+        <v>16706.62228698731</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HCLTECH</t>
+          <t>COLPAL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>983.5499877929688</v>
+        <v>1539.949951171875</v>
       </c>
       <c r="E4" t="n">
-        <v>8851.949890136719</v>
+        <v>20019.34936523438</v>
       </c>
       <c r="F4" t="n">
-        <v>10488.17790771484</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>HCLTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1397.099975585938</v>
+        <v>1048.949951171875</v>
       </c>
       <c r="E5" t="n">
-        <v>117356.3979492188</v>
+        <v>9440.549560546875</v>
       </c>
       <c r="F5" t="n">
-        <v>15732.26686157227</v>
+        <v>13365.29782958984</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>-73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>HDFCAMC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2496.85009765625</v>
+        <v>1769.949951171875</v>
       </c>
       <c r="E6" t="n">
-        <v>22471.65087890625</v>
+        <v>8849.749755859375</v>
       </c>
       <c r="F6" t="n">
-        <v>15732.26686157227</v>
+        <v>13365.29782958984</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>HDFCBANK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D7" t="n">
-        <v>2178.050048828125</v>
+        <v>1674.599975585938</v>
       </c>
       <c r="E7" t="n">
-        <v>4356.10009765625</v>
+        <v>140666.3979492188</v>
       </c>
       <c r="F7" t="n">
-        <v>10488.17790771484</v>
+        <v>20047.94674438476</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LTTS</t>
+          <t>HINDUNILVR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>3121.89990234375</v>
+        <v>2497.949951171875</v>
       </c>
       <c r="E8" t="n">
-        <v>15609.49951171875</v>
+        <v>22481.54956054688</v>
       </c>
       <c r="F8" t="n">
-        <v>7866.133430786133</v>
+        <v>20047.94674438476</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARICO</t>
+          <t>ISEC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>503.75</v>
+        <v>430.1499938964844</v>
       </c>
       <c r="E9" t="n">
-        <v>20150</v>
+        <v>12904.49981689453</v>
       </c>
       <c r="F9" t="n">
-        <v>7866.133430786133</v>
+        <v>16706.62228698731</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>-25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PIDILITIND</t>
+          <t>KOTAKBANK</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1893.650024414062</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13255.55017089844</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16706.62228698731</v>
+      </c>
+      <c r="G10" t="n">
         <v>8</v>
       </c>
-      <c r="D10" t="n">
-        <v>2250.85009765625</v>
-      </c>
-      <c r="E10" t="n">
-        <v>18006.80078125</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10488.17790771484</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
       <c r="H10" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1909.150024414062</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3818.300048828125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>13365.29782958984</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3265.449951171875</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16327.24975585938</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7866.133430786133</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AMRUTANJAN</t>
+          <t>LTTS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>788.2999877929688</v>
+        <v>3386.75</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>16933.75</v>
       </c>
       <c r="F12" t="n">
-        <v>10488.17790771484</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>MARICO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D13" t="n">
-        <v>2879.800048828125</v>
+        <v>473.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18930</v>
       </c>
       <c r="F13" t="n">
-        <v>13110.22238464356</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAJFINANCE</t>
+          <t>PIDILITIND</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2440.14990234375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19521.19921875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13365.29782958984</v>
+      </c>
+      <c r="G14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5873.2001953125</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13110.22238464356</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BERGEPAINT</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>585.25</v>
+        <v>3160.85009765625</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>15804.25048828125</v>
       </c>
       <c r="F15" t="n">
-        <v>10488.17790771484</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>17</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DIVISLAB</t>
+          <t>AMRUTANJAN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3671.300048828125</v>
+        <v>611.7000122070312</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7866.133430786133</v>
+        <v>13365.29782958984</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FINEORG</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5151.2998046875</v>
+        <v>2882.10009765625</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7866.133430786133</v>
+        <v>16706.62228698731</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GRINDWELL</t>
+          <t>BERGEPAINT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1712.199951171875</v>
+        <v>584.5999755859375</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>7866.133430786133</v>
+        <v>13365.29782958984</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HDFCAMC</t>
+          <t>DIVISLAB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1957.25</v>
+        <v>3231.64990234375</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>10488.17790771484</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ISEC</t>
+          <t>FINEORG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>432.2000122070312</v>
+        <v>4329.7998046875</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13110.22238464356</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>GRINDWELL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1744.75</v>
+        <v>1855.599975585938</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>13110.22238464356</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -4896,13 +5104,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2889.75</v>
+        <v>4170.85009765625</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>7866.133430786133</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -4924,19 +5132,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>94.90000152587891</v>
+        <v>287.7000122070312</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7866.133430786133</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G23" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="H23" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -4952,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>18419.150390625</v>
+        <v>20496.849609375</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>10488.17790771484</v>
+        <v>13365.29782958984</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -4980,19 +5188,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1393.849975585938</v>
+        <v>120.5999984741211</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5244.088953857422</v>
+        <v>6682.648914794921</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
@@ -5008,19 +5216,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9497.2001953125</v>
+        <v>7517</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7866.133430786133</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -5036,19 +5244,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>847.8499755859375</v>
+        <v>531.25</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7866.133430786133</v>
+        <v>10023.97337219238</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
